--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70643E-04D9-4A09-AC89-0A3C84336468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66357C46-2855-4240-8DC5-F45AE22A60D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <t>web scraping lấy tất cá các cấu trúc thư mục cho tôi bằng C# (rss, thư mục, etc) từ link báo sau: https://tuoitre.vn/rss.htm</t>
   </si>
   <si>
-    <t>web scrapig in C# to get category and rss url into table for link below: https://tuoitre.vn/rss.htm</t>
+    <t>web scraping in C# to get category and rss url into table for link below: https://tuoitre.vn/rss.htm</t>
   </si>
 </sst>
 </file>
@@ -283,8 +283,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66357C46-2855-4240-8DC5-F45AE22A60D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C569C-16EF-417A-9197-765E3BDCEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,8 +830,8 @@
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C569C-16EF-417A-9197-765E3BDCEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399450B4-DC79-4BB3-9593-95833F9CF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>provider</t>
   </si>
   <si>
-    <t>category/channel</t>
-  </si>
-  <si>
     <t>item/new</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>tuoitre</t>
   </si>
   <si>
-    <t>baomoi</t>
-  </si>
-  <si>
-    <t>thanhnien</t>
-  </si>
-  <si>
     <t>dantri</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>favoriteCategory</t>
   </si>
   <si>
-    <t>webMetadata</t>
-  </si>
-  <si>
     <t>Hướng dẫn cách làm step by steps</t>
   </si>
   <si>
@@ -210,6 +198,39 @@
   </si>
   <si>
     <t>web scraping in C# to get category and rss url into table for link below: https://tuoitre.vn/rss.htm</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>vnexpress</t>
+  </si>
+  <si>
+    <t>https://vnexpress.net/rss</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/rss.htm</t>
+  </si>
+  <si>
+    <t>vietnamnet</t>
+  </si>
+  <si>
+    <t>https://infonet.vietnamnet.vn/rss</t>
+  </si>
+  <si>
+    <t>laodong</t>
+  </si>
+  <si>
+    <t>https://laodong.vn/rss</t>
+  </si>
+  <si>
+    <t>nhandan</t>
+  </si>
+  <si>
+    <t>https://nhandan.vn/rss.html</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -281,17 +302,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -386,35 +422,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}" name="Table3" displayName="Table3" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="metadata"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50720C85-B93D-4FB2-8BD7-9F0A9DD6D97F}" name="Table4" displayName="Table4" ref="E2:J9" totalsRowShown="0">
-  <autoFilter ref="E2:J9" xr:uid="{50720C85-B93D-4FB2-8BD7-9F0A9DD6D97F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50720C85-B93D-4FB2-8BD7-9F0A9DD6D97F}" name="Table4" displayName="Table4" ref="E2:H9" totalsRowShown="0">
+  <autoFilter ref="E2:H9" xr:uid="{50720C85-B93D-4FB2-8BD7-9F0A9DD6D97F}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{38B043E7-FAE1-4291-A1A5-E497BB9FBAF2}" name="Id"/>
     <tableColumn id="2" xr3:uid="{54BCE3A6-D70B-426C-A2C9-CCCC872032C1}" name="name"/>
     <tableColumn id="3" xr3:uid="{31306A9E-2EFF-45DE-B859-A500DE4AC66D}" name="providerID"/>
     <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source"/>
-    <tableColumn id="4" xr3:uid="{C77CDF83-97EB-468E-B97B-058105EDAC95}" name="metadata"/>
-    <tableColumn id="7" xr3:uid="{975803EC-C816-41C8-BA58-25A9A3E4085F}" name="webMetadata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9FE3D73E-BB7D-48C9-A57D-4BA2526E24A2}" name="Table5" displayName="Table5" ref="L2:R9" totalsRowShown="0">
-  <autoFilter ref="L2:R9" xr:uid="{9FE3D73E-BB7D-48C9-A57D-4BA2526E24A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9FE3D73E-BB7D-48C9-A57D-4BA2526E24A2}" name="Table5" displayName="Table5" ref="J2:P9" totalsRowShown="0">
+  <autoFilter ref="J2:P9" xr:uid="{9FE3D73E-BB7D-48C9-A57D-4BA2526E24A2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4FA6377-4941-4733-A949-DE88D5E586EC}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C61EAB24-82C9-4B14-B25F-7C4F3B137670}" name="title"/>
@@ -429,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2D01446D-FE5A-4766-8266-DD83D3BE0397}" name="Table6" displayName="Table6" ref="T2:V9" totalsRowShown="0">
-  <autoFilter ref="T2:V9" xr:uid="{2D01446D-FE5A-4766-8266-DD83D3BE0397}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2D01446D-FE5A-4766-8266-DD83D3BE0397}" name="Table6" displayName="Table6" ref="R2:T9" totalsRowShown="0">
+  <autoFilter ref="R2:T9" xr:uid="{2D01446D-FE5A-4766-8266-DD83D3BE0397}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9E651080-7648-4C0D-AD99-C769CECA5FCF}" name="Id"/>
     <tableColumn id="2" xr3:uid="{17D6F960-54AC-4DA9-B932-AC6FC575807F}" name="name"/>
@@ -441,12 +475,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="X2:Z9" totalsRowShown="0">
-  <autoFilter ref="X2:Z9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
+  <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,520 +853,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="28.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" customWidth="1"/>
+    <col min="20" max="21" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>29</v>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <v>2</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="L5">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>18</v>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="T5">
         <v>3</v>
       </c>
-      <c r="U5" t="s">
-        <v>30</v>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <v>3</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
       </c>
       <c r="X6" s="2">
         <v>4</v>
       </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
       <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" t="s">
-        <v>32</v>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
       </c>
       <c r="X7" s="1">
         <v>5</v>
       </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="J8">
         <v>6</v>
       </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
       <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="T8">
         <v>6</v>
       </c>
-      <c r="U8" t="s">
-        <v>33</v>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
       </c>
       <c r="X8" s="2">
         <v>6</v>
       </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9">
+      <c r="J9">
         <v>7</v>
       </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
       <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="T9">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>34</v>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="1">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
       </c>
       <c r="X9" s="1">
         <v>7</v>
       </c>
-      <c r="Y9">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
@@ -1352,15 +1379,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1386,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1415,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1441,29 +1468,77 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{47B69641-9C93-4B55-96B3-A6373A09F8C6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4AB8A68E-C04E-4D2D-BE1A-F256E627B3D8}"/>
+    <hyperlink ref="H27" r:id="rId3" xr:uid="{1254BA32-D4A1-43F2-9476-33F231041151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="9">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -1471,6 +1546,8 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399450B4-DC79-4BB3-9593-95833F9CF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2EB464-DC8F-4019-B918-1B128EE12A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>provider</t>
   </si>
@@ -134,9 +134,6 @@
     <t>bongda</t>
   </si>
   <si>
-    <t>newTags</t>
-  </si>
-  <si>
     <t>newId</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>useCategory</t>
   </si>
   <si>
-    <t>useTag</t>
-  </si>
-  <si>
     <t>table config</t>
   </si>
   <si>
@@ -191,15 +185,6 @@
     <t>favoriteCategory</t>
   </si>
   <si>
-    <t>Hướng dẫn cách làm step by steps</t>
-  </si>
-  <si>
-    <t>web scraping lấy tất cá các cấu trúc thư mục cho tôi bằng C# (rss, thư mục, etc) từ link báo sau: https://tuoitre.vn/rss.htm</t>
-  </si>
-  <si>
-    <t>web scraping in C# to get category and rss url into table for link below: https://tuoitre.vn/rss.htm</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -231,6 +216,27 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>ItemTag</t>
+  </si>
+  <si>
+    <t>UserTag</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>UserCategory</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>useProvider</t>
+  </si>
+  <si>
+    <t>ProviderId</t>
   </si>
 </sst>
 </file>
@@ -324,7 +330,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -408,6 +417,166 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -426,8 +595,32 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
+  <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}" name="Table723" displayName="Table723" ref="Q13:S18" totalsRowShown="0">
+  <autoFilter ref="Q13:S18" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{801DE462-8BC9-4975-8D88-7F8ECA1717F3}" name="UserId"/>
+    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,9 +671,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,15 +709,15 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{12BE2974-A1C6-467F-BF86-5C6C9066C18D}" name="Id"/>
     <tableColumn id="2" xr3:uid="{31756908-548D-4054-B748-722778FA6E3E}" name="userId"/>
-    <tableColumn id="3" xr3:uid="{E442DAA0-732D-4C1A-BAA3-4DCBB55678DD}" name="tagId"/>
+    <tableColumn id="3" xr3:uid="{E442DAA0-732D-4C1A-BAA3-4DCBB55678DD}" name="ProviderId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="M13:Q18" totalsRowShown="0">
-  <autoFilter ref="M13:Q18" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="A22:E27" totalsRowShown="0">
+  <autoFilter ref="A22:E27" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CE5A38DB-09F9-4465-B560-5CFD95B1105C}" name="id"/>
     <tableColumn id="2" xr3:uid="{82A6E27B-4EDF-42AF-881E-EFB0C5D3C2A3}" name="mostLike"/>
@@ -855,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +1058,7 @@
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
     <col min="9" max="9" width="4.5546875" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.109375" customWidth="1"/>
@@ -874,6 +1067,7 @@
     <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="6.88671875" customWidth="1"/>
     <col min="20" max="21" width="10.5546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -881,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -890,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="X1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -901,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -949,21 +1143,21 @@
         <v>4</v>
       </c>
       <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
         <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1006,11 +1200,11 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1053,11 +1247,11 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1100,11 +1294,11 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1144,11 +1338,11 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1188,11 +1382,11 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1265,16 +1459,19 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -1282,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1291,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1300,25 +1497,28 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1326,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1347,6 +1547,24 @@
         <v>1</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1355,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1376,6 +1594,24 @@
         <v>1</v>
       </c>
       <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1384,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1407,16 +1643,34 @@
       <c r="K16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1436,16 +1690,34 @@
       <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="2">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1465,80 +1737,81 @@
       <c r="K18">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{47B69641-9C93-4B55-96B3-A6373A09F8C6}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4AB8A68E-C04E-4D2D-BE1A-F256E627B3D8}"/>
-    <hyperlink ref="H27" r:id="rId3" xr:uid="{1254BA32-D4A1-43F2-9476-33F231041151}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <tableParts count="9">
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="11">
+    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -1548,6 +1821,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2EB464-DC8F-4019-B918-1B128EE12A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA01CDB-274B-4DBF-8084-426AA08B6990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -243,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,12 +330,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -577,6 +569,12 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -595,8 +593,8 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,9 +604,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
   <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,9 +616,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}" name="Table723" displayName="Table723" ref="Q13:S18" totalsRowShown="0">
   <autoFilter ref="Q13:S18" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{801DE462-8BC9-4975-8D88-7F8ECA1717F3}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,9 +669,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,29 +1046,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:S18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="4.59765625" customWidth="1"/>
+    <col min="10" max="10" width="7.296875" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" customWidth="1"/>
-    <col min="20" max="21" width="10.5546875" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.69921875" customWidth="1"/>
+    <col min="17" max="17" width="9.296875" customWidth="1"/>
+    <col min="18" max="18" width="6.8984375" customWidth="1"/>
+    <col min="20" max="21" width="10.59765625" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="E9">
         <v>7</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1756,12 +1754,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1776,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA01CDB-274B-4DBF-8084-426AA08B6990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32050FA1-3626-481C-872C-A30067CB9330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>https://nhandan.vn/rss.html</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>ItemTag</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>ProviderId</t>
+  </si>
+  <si>
+    <t>Category/channel</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1059,6 +1059,7 @@
     <col min="8" max="8" width="14.8984375" customWidth="1"/>
     <col min="9" max="9" width="4.59765625" customWidth="1"/>
     <col min="10" max="10" width="7.296875" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="10.09765625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="9.69921875" customWidth="1"/>
@@ -1073,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1463,13 +1464,13 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1498,13 +1499,13 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
         <v>33</v>
@@ -1513,10 +1514,10 @@
         <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:24">

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32050FA1-3626-481C-872C-A30067CB9330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83539D79-6B87-4D94-8589-0608E1887A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>provider</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Category/channel</t>
+  </si>
+  <si>
+    <t>UserItem</t>
+  </si>
+  <si>
+    <t>ItemId</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -570,6 +576,86 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -593,8 +679,8 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,9 +690,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
   <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,9 +702,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}" name="Table723" displayName="Table723" ref="Q13:S18" totalsRowShown="0">
   <autoFilter ref="Q13:S18" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{801DE462-8BC9-4975-8D88-7F8ECA1717F3}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="U13:W18" totalsRowShown="0">
+  <autoFilter ref="U13:W18" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{294C7830-B148-48C9-81FB-2CA515368E67}" name="UserId"/>
+    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -669,9 +767,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,7 +1145,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1472,6 +1570,9 @@
       <c r="Q12" t="s">
         <v>62</v>
       </c>
+      <c r="U12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
@@ -1519,6 +1620,15 @@
       <c r="S13" t="s">
         <v>63</v>
       </c>
+      <c r="U13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
@@ -1566,6 +1676,15 @@
       <c r="S14" s="1">
         <v>1</v>
       </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
@@ -1611,6 +1730,15 @@
         <v>1</v>
       </c>
       <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1660,8 +1788,17 @@
       <c r="S16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16" s="1">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1707,8 +1844,17 @@
       <c r="S17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="U17" s="2">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1754,13 +1900,22 @@
       <c r="S18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="U18" s="1">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1777,27 +1932,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:23">
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:23">
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:23">
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:23">
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:23">
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:23">
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -1809,7 +1964,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
@@ -1821,6 +1976,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83539D79-6B87-4D94-8589-0608E1887A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF163D07-90C6-4605-A9D6-58DD28F76D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>provider</t>
   </si>
@@ -81,9 +81,6 @@
     <t>game</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>film</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>https://tuoitre.vn/rss.htm</t>
   </si>
   <si>
-    <t>https://baomoi.com/tag/rss.epi</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Nam5</t>
   </si>
   <si>
-    <t>useCategory</t>
-  </si>
-  <si>
     <t>table config</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>vnexpress</t>
   </si>
   <si>
-    <t>https://vnexpress.net/rss</t>
-  </si>
-  <si>
     <t>https://dantri.com.vn/rss.htm</t>
   </si>
   <si>
@@ -216,21 +204,9 @@
     <t>ItemTag</t>
   </si>
   <si>
-    <t>UserTag</t>
-  </si>
-  <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>UserCategory</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
-    <t>useProvider</t>
-  </si>
-  <si>
     <t>ProviderId</t>
   </si>
   <si>
@@ -241,13 +217,40 @@
   </si>
   <si>
     <t>ItemId</t>
+  </si>
+  <si>
+    <t>IsLiked</t>
+  </si>
+  <si>
+    <t>IsBookmarked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LikeDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookmarkDate </t>
+  </si>
+  <si>
+    <t>useCategory (Follow)</t>
+  </si>
+  <si>
+    <t>useProvider (Follow)</t>
+  </si>
+  <si>
+    <t>UserTag (Follow)</t>
+  </si>
+  <si>
+    <t>//vnexpress.net/rss</t>
+  </si>
+  <si>
+    <t>//</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -307,16 +317,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -329,12 +364,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -536,126 +788,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -679,8 +811,8 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,33 +822,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
   <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}" name="Table723" displayName="Table723" ref="Q13:S18" totalsRowShown="0">
-  <autoFilter ref="Q13:S18" xr:uid="{4698376B-7C5E-4D1C-B1BE-1AA4B3EA1C99}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D1CFB640-ECDC-411E-ACD4-FFA7E1C98D13}" name="Id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{801DE462-8BC9-4975-8D88-7F8ECA1717F3}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{76814200-E2E3-44D5-BD59-CAB3A08B17AE}" name="CategoryId" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="U13:W18" totalsRowShown="0">
-  <autoFilter ref="U13:W18" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="Q13:W18" totalsRowShown="0">
+  <autoFilter ref="Q13:W18" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{294C7830-B148-48C9-81FB-2CA515368E67}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,7 +853,7 @@
     <tableColumn id="1" xr3:uid="{38B043E7-FAE1-4291-A1A5-E497BB9FBAF2}" name="Id"/>
     <tableColumn id="2" xr3:uid="{54BCE3A6-D70B-426C-A2C9-CCCC872032C1}" name="name"/>
     <tableColumn id="3" xr3:uid="{31306A9E-2EFF-45DE-B859-A500DE4AC66D}" name="providerID"/>
-    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source"/>
+    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,7 +865,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4FA6377-4941-4733-A949-DE88D5E586EC}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C61EAB24-82C9-4B14-B25F-7C4F3B137670}" name="title"/>
-    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link"/>
+    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="0" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{83CCC064-BFF9-4258-BDE1-7E34D8E0C5FE}" name="guid"/>
     <tableColumn id="5" xr3:uid="{AA59AE45-ACFC-4085-A5D9-74483D214052}" name="pubDate"/>
     <tableColumn id="6" xr3:uid="{86EBACFA-73A0-4D21-8C97-30BEBBAE6B8D}" name="image"/>
@@ -767,9 +891,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1144,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1154,17 +1278,23 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" customWidth="1"/>
     <col min="9" max="9" width="4.59765625" customWidth="1"/>
     <col min="10" max="10" width="7.296875" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="10.09765625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="15" max="15" width="6.8984375" customWidth="1"/>
     <col min="16" max="16" width="9.69921875" customWidth="1"/>
     <col min="17" max="17" width="9.296875" customWidth="1"/>
     <col min="18" max="18" width="6.8984375" customWidth="1"/>
-    <col min="20" max="21" width="10.59765625" customWidth="1"/>
-    <col min="25" max="25" width="10.8984375" customWidth="1"/>
+    <col min="19" max="19" width="10.296875" customWidth="1"/>
+    <col min="20" max="20" width="10.59765625" customWidth="1"/>
+    <col min="21" max="21" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="10.296875" customWidth="1"/>
+    <col min="24" max="24" width="8.09765625" customWidth="1"/>
+    <col min="25" max="25" width="13.59765625" customWidth="1"/>
+    <col min="27" max="27" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1172,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -1180,8 +1310,8 @@
       <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="X1" t="s">
-        <v>59</v>
+      <c r="V1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1192,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1204,28 +1334,28 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>4</v>
@@ -1240,21 +1370,21 @@
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1265,14 +1395,14 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
+      <c r="H3" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="L3" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1281,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V3" s="1">
         <v>1</v>
@@ -1297,11 +1427,11 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1312,14 +1442,14 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="H4" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
+      <c r="L4" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1328,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V4" s="2">
         <v>2</v>
@@ -1344,11 +1474,11 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>52</v>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1359,14 +1489,14 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
+      <c r="H5" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
+      <c r="L5" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1375,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -1391,11 +1521,11 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>54</v>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1406,12 +1536,15 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
+      <c r="H6" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
+      <c r="L6" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="P6">
         <v>2</v>
       </c>
@@ -1419,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V6" s="2">
         <v>4</v>
@@ -1435,11 +1568,11 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>56</v>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1450,12 +1583,15 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
+      <c r="H7" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
+      <c r="L7" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="P7">
         <v>3</v>
       </c>
@@ -1463,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V7" s="1">
         <v>5</v>
@@ -1479,11 +1615,11 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1494,12 +1630,15 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
+      <c r="H8" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
+      <c r="L8" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="P8">
         <v>4</v>
       </c>
@@ -1507,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V8" s="2">
         <v>6</v>
@@ -1524,17 +1663,20 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
+      <c r="H9" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
+      <c r="L9" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="P9">
         <v>6</v>
       </c>
@@ -1542,7 +1684,7 @@
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V9" s="1">
         <v>7</v>
@@ -1556,22 +1698,19 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
-      </c>
-      <c r="U12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1579,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1588,46 +1727,49 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
       </c>
       <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
         <v>61</v>
       </c>
-      <c r="O13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
         <v>63</v>
       </c>
-      <c r="U13" t="s">
-        <v>4</v>
-      </c>
-      <c r="V13" t="s">
-        <v>61</v>
-      </c>
       <c r="W13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1635,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1676,26 +1818,25 @@
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
@@ -1732,25 +1873,24 @@
       <c r="S15" s="2">
         <v>2</v>
       </c>
-      <c r="U15" s="2">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="2">
-        <v>2</v>
-      </c>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1788,25 +1928,24 @@
       <c r="S16" s="1">
         <v>3</v>
       </c>
-      <c r="U16" s="1">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>3</v>
-      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1844,25 +1983,24 @@
       <c r="S17" s="2">
         <v>4</v>
       </c>
-      <c r="U17" s="2">
-        <v>4</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17" s="2">
-        <v>4</v>
-      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1900,19 +2038,18 @@
       <c r="S18" s="1">
         <v>5</v>
       </c>
-      <c r="U18" s="1">
-        <v>5</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18" s="1">
-        <v>5</v>
-      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1920,54 +2057,54 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{47B69641-9C93-4B55-96B3-A6373A09F8C6}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://" xr:uid="{4538067E-2F6E-4FDA-B311-1A1F48E7DC91}"/>
+    <hyperlink ref="H4:H9" r:id="rId3" display="https://" xr:uid="{69E33473-6876-457D-816B-46C11F5ECE90}"/>
+    <hyperlink ref="L3" r:id="rId4" display="https://" xr:uid="{C63A063D-5974-4D9B-A5A1-1E3AC690762B}"/>
+    <hyperlink ref="L4:L9" r:id="rId5" display="https://" xr:uid="{7EAD558D-D27E-4D32-A0A5-41212FE4E908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <tableParts count="12">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <tableParts count="11">
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
@@ -1977,6 +2114,8 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF163D07-90C6-4605-A9D6-58DD28F76D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311FA5F9-D9A3-481E-BE73-6751D767DBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>provider</t>
   </si>
@@ -93,9 +93,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>guid</t>
-  </si>
-  <si>
     <t>pubDate</t>
   </si>
   <si>
@@ -244,6 +241,33 @@
   </si>
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>ProcessId</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ProcessAt</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
   </si>
 </sst>
 </file>
@@ -348,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -373,22 +397,385 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -422,372 +809,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -811,8 +832,8 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,10 +858,25 @@
     <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{294C7830-B148-48C9-81FB-2CA515368E67}" name="UserId"/>
     <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}" name="Table314" displayName="Table314" ref="A31:F43" totalsRowShown="0">
+  <autoFilter ref="A31:F43" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7089E9C7-A5E5-408E-85B2-5FAB78FF1CA1}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{47E987CC-61DB-4715-81E3-6451455B92CA}" name="name" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{83D48223-0110-4B38-AE69-60B67EAE84CA}" name="Source" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{3750A7E6-CA41-4873-92D2-F6A3A0B0BC2D}" name="ProcessId"/>
+    <tableColumn id="6" xr3:uid="{C076206E-C8E3-40AE-ACE4-F4BAC9B9F36C}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{FC1B31D9-23D5-49D8-AA04-AC440B51775B}" name="ProcessAt"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,7 +889,7 @@
     <tableColumn id="1" xr3:uid="{38B043E7-FAE1-4291-A1A5-E497BB9FBAF2}" name="Id"/>
     <tableColumn id="2" xr3:uid="{54BCE3A6-D70B-426C-A2C9-CCCC872032C1}" name="name"/>
     <tableColumn id="3" xr3:uid="{31306A9E-2EFF-45DE-B859-A500DE4AC66D}" name="providerID"/>
-    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,8 +901,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4FA6377-4941-4733-A949-DE88D5E586EC}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C61EAB24-82C9-4B14-B25F-7C4F3B137670}" name="title"/>
-    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{83CCC064-BFF9-4258-BDE1-7E34D8E0C5FE}" name="guid"/>
+    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{83CCC064-BFF9-4258-BDE1-7E34D8E0C5FE}" name="uuid"/>
     <tableColumn id="5" xr3:uid="{AA59AE45-ACFC-4085-A5D9-74483D214052}" name="pubDate"/>
     <tableColumn id="6" xr3:uid="{86EBACFA-73A0-4D21-8C97-30BEBBAE6B8D}" name="image"/>
     <tableColumn id="7" xr3:uid="{05C31B78-E48D-4A81-9161-899BA62FD686}" name="categoryId"/>
@@ -1266,16 +1302,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" customWidth="1"/>
     <col min="8" max="8" width="8.296875" customWidth="1"/>
@@ -1284,13 +1322,13 @@
     <col min="11" max="11" width="9.8984375" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="10.09765625" customWidth="1"/>
-    <col min="15" max="15" width="6.8984375" customWidth="1"/>
+    <col min="15" max="15" width="8.19921875" customWidth="1"/>
     <col min="16" max="16" width="9.69921875" customWidth="1"/>
     <col min="17" max="17" width="9.296875" customWidth="1"/>
     <col min="18" max="18" width="6.8984375" customWidth="1"/>
     <col min="19" max="19" width="10.296875" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="8.5" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" customWidth="1"/>
     <col min="23" max="23" width="10.296875" customWidth="1"/>
     <col min="24" max="24" width="8.09765625" customWidth="1"/>
     <col min="25" max="25" width="13.59765625" customWidth="1"/>
@@ -1302,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -1311,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="V1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1322,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1346,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>4</v>
@@ -1370,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
         <v>30</v>
-      </c>
-      <c r="X2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1381,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1395,14 +1433,14 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>69</v>
+      <c r="H3" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>69</v>
+      <c r="L3" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1411,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" s="1">
         <v>1</v>
@@ -1442,14 +1480,14 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>69</v>
+      <c r="H4" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>69</v>
+      <c r="L4" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1458,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V4" s="2">
         <v>2</v>
@@ -1478,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1489,14 +1527,14 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>69</v>
+      <c r="H5" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>69</v>
+      <c r="L5" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1505,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -1522,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1536,14 +1574,14 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>69</v>
+      <c r="H6" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>69</v>
+      <c r="L6" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1552,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V6" s="2">
         <v>4</v>
@@ -1569,10 +1607,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1583,14 +1621,14 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>69</v>
+      <c r="H7" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>69</v>
+      <c r="L7" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -1599,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V7" s="1">
         <v>5</v>
@@ -1616,10 +1654,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1630,14 +1668,14 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>69</v>
+      <c r="H8" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>69</v>
+      <c r="L8" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P8">
         <v>4</v>
@@ -1646,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V8" s="2">
         <v>6</v>
@@ -1668,14 +1706,14 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>69</v>
+      <c r="H9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>69</v>
+      <c r="L9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -1684,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V9" s="1">
         <v>7</v>
@@ -1698,19 +1736,19 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>66</v>
       </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1718,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1727,49 +1765,49 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s">
         <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" t="s">
         <v>60</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>61</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>62</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>63</v>
-      </c>
-      <c r="W13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1777,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1824,18 +1862,18 @@
       <c r="U14" s="7">
         <v>1</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1879,18 +1917,18 @@
       <c r="U15" s="8">
         <v>1</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1934,18 +1972,18 @@
       <c r="U16" s="8">
         <v>0</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1989,18 +2027,18 @@
       <c r="U17" s="8">
         <v>1</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2044,12 +2082,12 @@
       <c r="U18" s="9">
         <v>0</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2057,16 +2095,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2086,25 +2124,250 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://" xr:uid="{4538067E-2F6E-4FDA-B311-1A1F48E7DC91}"/>
-    <hyperlink ref="H4:H9" r:id="rId3" display="https://" xr:uid="{69E33473-6876-457D-816B-46C11F5ECE90}"/>
-    <hyperlink ref="L3" r:id="rId4" display="https://" xr:uid="{C63A063D-5974-4D9B-A5A1-1E3AC690762B}"/>
-    <hyperlink ref="L4:L9" r:id="rId5" display="https://" xr:uid="{7EAD558D-D27E-4D32-A0A5-41212FE4E908}"/>
+    <hyperlink ref="C33" r:id="rId2" xr:uid="{D0D3A713-AA10-4BF9-BF49-38A73DBD5927}"/>
+    <hyperlink ref="C39" r:id="rId3" xr:uid="{0E1FD846-5F1C-4A35-B847-9D27F4DED921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <tableParts count="11">
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <tableParts count="12">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
@@ -2115,7 +2378,6 @@
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
-    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311FA5F9-D9A3-481E-BE73-6751D767DBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC53218-0292-4CC7-9C32-2F199919237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
   <si>
     <t>provider</t>
   </si>
@@ -268,6 +268,30 @@
   </si>
   <si>
     <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>ProviderProcess</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>ItemComment</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CmtDate </t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ParentID</t>
   </si>
 </sst>
 </file>
@@ -372,14 +396,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -403,7 +424,177 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -832,8 +1023,8 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,9 +1034,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
   <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,28 +1046,57 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="Q13:W18" totalsRowShown="0">
   <autoFilter ref="Q13:W18" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{294C7830-B148-48C9-81FB-2CA515368E67}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}" name="Table314" displayName="Table314" ref="A31:F43" totalsRowShown="0">
-  <autoFilter ref="A31:F43" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}" name="Table314" displayName="Table314" ref="A22:F34" totalsRowShown="0">
+  <autoFilter ref="A22:F34" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7089E9C7-A5E5-408E-85B2-5FAB78FF1CA1}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{47E987CC-61DB-4715-81E3-6451455B92CA}" name="name" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{83D48223-0110-4B38-AE69-60B67EAE84CA}" name="Source" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{47E987CC-61DB-4715-81E3-6451455B92CA}" name="name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{83D48223-0110-4B38-AE69-60B67EAE84CA}" name="Source" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{3750A7E6-CA41-4873-92D2-F6A3A0B0BC2D}" name="ProcessId"/>
     <tableColumn id="6" xr3:uid="{C076206E-C8E3-40AE-ACE4-F4BAC9B9F36C}" name="Status"/>
     <tableColumn id="7" xr3:uid="{FC1B31D9-23D5-49D8-AA04-AC440B51775B}" name="ProcessAt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{612A3A46-4215-446A-99EF-29D247563B2A}" name="Table3143" displayName="Table3143" ref="A37:E49" totalsRowShown="0">
+  <autoFilter ref="A37:E49" xr:uid="{612A3A46-4215-446A-99EF-29D247563B2A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BA0FA6AC-2EBA-46EB-AD18-D05F443B706E}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{0FDFA34D-112A-4C03-AF06-B2BA2034D0A9}" name="ProviderId" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0490E3A0-FEF6-4A7C-9EFA-68092B4526B0}" name="ProcessId"/>
+    <tableColumn id="6" xr3:uid="{0330831D-B93C-4167-A1DC-ADE219EEBD0C}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{AC7B46A8-A4FA-4958-A521-FF9221369981}" name="ProcessAt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}" name="Table7231215" displayName="Table7231215" ref="N22:S27" totalsRowShown="0">
+  <autoFilter ref="N22:S27" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{47B5F713-EDFC-4E40-80B7-06955DEA0EB4}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{100CC2EC-802B-48DE-8DFA-0F488828ACAF}" name="UserId"/>
+    <tableColumn id="3" xr3:uid="{D99B45D6-B229-4A6D-8CB0-48BC286D8807}" name="ItemId" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4254865E-59FE-4CC6-ABAC-26E46E9BC824}" name="Content" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C809E427-56E5-42EA-A0E4-E609CBF223C8}" name="ParentID" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A27FF510-279C-4BA9-B9E6-595FB1D6A166}" name="CmtDate " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -889,7 +1109,7 @@
     <tableColumn id="1" xr3:uid="{38B043E7-FAE1-4291-A1A5-E497BB9FBAF2}" name="Id"/>
     <tableColumn id="2" xr3:uid="{54BCE3A6-D70B-426C-A2C9-CCCC872032C1}" name="name"/>
     <tableColumn id="3" xr3:uid="{31306A9E-2EFF-45DE-B859-A500DE4AC66D}" name="providerID"/>
-    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,7 +1121,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4FA6377-4941-4733-A949-DE88D5E586EC}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C61EAB24-82C9-4B14-B25F-7C4F3B137670}" name="title"/>
-    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="18" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{83CCC064-BFF9-4258-BDE1-7E34D8E0C5FE}" name="uuid"/>
     <tableColumn id="5" xr3:uid="{AA59AE45-ACFC-4085-A5D9-74483D214052}" name="pubDate"/>
     <tableColumn id="6" xr3:uid="{86EBACFA-73A0-4D21-8C97-30BEBBAE6B8D}" name="image"/>
@@ -927,9 +1147,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -972,8 +1192,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="A22:E27" totalsRowShown="0">
-  <autoFilter ref="A22:E27" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="H22:L27" totalsRowShown="0">
+  <autoFilter ref="H22:L27" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CE5A38DB-09F9-4465-B560-5CFD95B1105C}" name="id"/>
     <tableColumn id="2" xr3:uid="{82A6E27B-4EDF-42AF-881E-EFB0C5D3C2A3}" name="mostLike"/>
@@ -1302,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1317,15 +1537,15 @@
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" customWidth="1"/>
     <col min="8" max="8" width="8.296875" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" customWidth="1"/>
-    <col min="10" max="10" width="7.296875" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="10.09765625" customWidth="1"/>
     <col min="15" max="15" width="8.19921875" customWidth="1"/>
     <col min="16" max="16" width="9.69921875" customWidth="1"/>
     <col min="17" max="17" width="9.296875" customWidth="1"/>
-    <col min="18" max="18" width="6.8984375" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
     <col min="19" max="19" width="10.296875" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
     <col min="21" max="21" width="11.796875" customWidth="1"/>
@@ -1418,10 +1638,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E3">
@@ -1433,13 +1653,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P3">
@@ -1465,10 +1685,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4">
@@ -1480,13 +1700,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P4">
@@ -1512,10 +1732,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E5">
@@ -1527,13 +1747,13 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P5">
@@ -1559,10 +1779,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E6">
@@ -1574,13 +1794,13 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P6">
@@ -1606,10 +1826,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E7">
@@ -1621,13 +1841,13 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P7">
@@ -1653,10 +1873,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E8">
@@ -1668,13 +1888,13 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P8">
@@ -1706,13 +1926,13 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>68</v>
       </c>
       <c r="P9">
@@ -1856,14 +2076,14 @@
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
@@ -1911,14 +2131,14 @@
       <c r="S15" s="2">
         <v>2</v>
       </c>
-      <c r="T15" s="8">
-        <v>1</v>
-      </c>
-      <c r="U15" s="8">
-        <v>1</v>
-      </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
@@ -1966,14 +2186,14 @@
       <c r="S16" s="1">
         <v>3</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <v>0</v>
       </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
@@ -2021,14 +2241,14 @@
       <c r="S17" s="2">
         <v>4</v>
       </c>
-      <c r="T17" s="8">
-        <v>1</v>
-      </c>
-      <c r="U17" s="8">
-        <v>1</v>
-      </c>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
@@ -2076,283 +2296,560 @@
       <c r="S18" s="1">
         <v>5</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <v>0</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>0</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="I22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="J22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="K22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
+      <c r="L22" t="s">
         <v>44</v>
       </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="6">
+        <v>2</v>
+      </c>
+      <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:23">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:23">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="N27" s="1">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="6">
+        <v>3</v>
+      </c>
+      <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:23">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:23">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>0</v>
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
+      <c r="A36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>53</v>
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>67</v>
+      <c r="D38" t="s">
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>17</v>
+      <c r="D39" t="s">
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>47</v>
+      <c r="D40" t="s">
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>49</v>
+      <c r="D41" t="s">
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>51</v>
+      <c r="D42" t="s">
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>12</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D49" t="s">
         <v>74</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2360,12 +2857,12 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
-    <hyperlink ref="C33" r:id="rId2" xr:uid="{D0D3A713-AA10-4BF9-BF49-38A73DBD5927}"/>
-    <hyperlink ref="C39" r:id="rId3" xr:uid="{0E1FD846-5F1C-4A35-B847-9D27F4DED921}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{D0D3A713-AA10-4BF9-BF49-38A73DBD5927}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{0E1FD846-5F1C-4A35-B847-9D27F4DED921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <tableParts count="12">
+  <tableParts count="14">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -2378,6 +2875,8 @@
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC53218-0292-4CC7-9C32-2F199919237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B0F1F-63AD-4CC9-AADD-2955B1FE3C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
   <si>
     <t>provider</t>
   </si>
@@ -292,13 +292,34 @@
   </si>
   <si>
     <t>ParentID</t>
+  </si>
+  <si>
+    <t>Put &amp; Patch</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Odata</t>
+  </si>
+  <si>
+    <t>Edit database</t>
+  </si>
+  <si>
+    <t>Chia table Category</t>
+  </si>
+  <si>
+    <t>Phân biệt</t>
+  </si>
+  <si>
+    <t>Filtering, Sorting, Pagination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -419,6 +440,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1524,38 +1551,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" customWidth="1"/>
-    <col min="16" max="16" width="9.69921875" customWidth="1"/>
-    <col min="17" max="17" width="9.296875" customWidth="1"/>
-    <col min="18" max="18" width="9.5" customWidth="1"/>
-    <col min="19" max="19" width="10.296875" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="11.796875" customWidth="1"/>
-    <col min="23" max="23" width="10.296875" customWidth="1"/>
-    <col min="24" max="24" width="8.09765625" customWidth="1"/>
-    <col min="25" max="25" width="13.59765625" customWidth="1"/>
-    <col min="27" max="27" width="14.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1775,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1822,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1869,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1916,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -1954,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1971,7 +1998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2085,7 +2112,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2140,7 +2167,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2195,7 +2222,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2250,7 +2277,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2305,7 +2332,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2316,7 +2343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2402,7 +2429,7 @@
       </c>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2435,7 +2462,7 @@
       </c>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2468,7 +2495,7 @@
       </c>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2502,7 +2529,7 @@
       </c>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2536,7 +2563,7 @@
       </c>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2555,7 +2582,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2574,7 +2601,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2593,7 +2620,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2612,7 +2639,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2628,8 +2655,20 @@
       <c r="F32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11</v>
       </c>
@@ -2645,8 +2684,20 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
@@ -2663,12 +2714,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2699,7 +2750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2713,7 +2764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2727,7 +2778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2741,7 +2792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2755,7 +2806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2769,7 +2820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2783,7 +2834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2797,7 +2848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2811,7 +2862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2825,7 +2876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2839,7 +2890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B0F1F-63AD-4CC9-AADD-2955B1FE3C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FAA1E-957B-4004-B3E7-6C608FFA7C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_dev-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FAA1E-957B-4004-B3E7-6C608FFA7C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF39BD-C464-4F92-8AB4-E2CAE8EFF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{253F383F-A90D-4F51-A1CE-257DC59F5222}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>provider</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>ProviderProcess</t>
   </si>
   <si>
     <t>Provider</t>
@@ -451,7 +448,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -618,9 +615,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1050,48 +1044,48 @@
   <autoFilter ref="A2:C8" xr:uid="{71D7D51D-5D69-479D-BB36-EDBCFC104CEA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C02B0E92-DC94-4598-AF9C-D877AC16DD51}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C877C871-E288-486A-9B8F-F408818B473B}" name="name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4038CAB8-86D5-43F3-A17A-F551FE541FC5}" name="Source" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M13:O18" totalsRowShown="0">
-  <autoFilter ref="M13:O18" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}" name="Table72" displayName="Table72" ref="M12:O17" totalsRowShown="0">
+  <autoFilter ref="M12:O17" xr:uid="{4D99F311-F1C7-4394-9C1A-B1255BB850C6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B7B96C0D-8ED3-4B2A-BA28-4567FF52DB66}" name="Id" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{E3C74788-0C7C-4DD1-A27D-68452BB36AA9}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{741C192C-2EC7-43C9-B0C8-676AFD3AC38D}" name="tagId" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="Q13:W18" totalsRowShown="0">
-  <autoFilter ref="Q13:W18" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}" name="Table72312" displayName="Table72312" ref="Q12:W17" totalsRowShown="0">
+  <autoFilter ref="Q12:W17" xr:uid="{AB0B86DC-26F2-4EEC-A677-1134565C8DDD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CBB17BC5-50AD-44A7-8EDE-559CA4BB99E4}" name="Id" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{294C7830-B148-48C9-81FB-2CA515368E67}" name="UserId"/>
-    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B8646A98-3E08-492F-BE05-E8862CB398EE}" name="ItemId" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0BF0E7DF-2CC3-4CC7-B392-E6C4A599251A}" name="IsLiked" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5EFF0586-34B4-423A-8583-A621F305EA0C}" name="IsBookmarked" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E5EACAE7-BE12-4705-A5EF-140D848AE44F}" name="LikeDate " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E926F97E-3475-4D0D-B73D-13415108D980}" name="BookmarkDate " dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}" name="Table314" displayName="Table314" ref="A22:F34" totalsRowShown="0">
-  <autoFilter ref="A22:F34" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}" name="Table314" displayName="Table314" ref="A20:F32" totalsRowShown="0">
+  <autoFilter ref="A20:F32" xr:uid="{4E67F0CF-D689-4B82-8945-F4489714A161}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7089E9C7-A5E5-408E-85B2-5FAB78FF1CA1}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{47E987CC-61DB-4715-81E3-6451455B92CA}" name="name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{83D48223-0110-4B38-AE69-60B67EAE84CA}" name="Source" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{47E987CC-61DB-4715-81E3-6451455B92CA}" name="name" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{83D48223-0110-4B38-AE69-60B67EAE84CA}" name="Source" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{3750A7E6-CA41-4873-92D2-F6A3A0B0BC2D}" name="ProcessId"/>
     <tableColumn id="6" xr3:uid="{C076206E-C8E3-40AE-ACE4-F4BAC9B9F36C}" name="Status"/>
     <tableColumn id="7" xr3:uid="{FC1B31D9-23D5-49D8-AA04-AC440B51775B}" name="ProcessAt"/>
@@ -1101,22 +1095,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{612A3A46-4215-446A-99EF-29D247563B2A}" name="Table3143" displayName="Table3143" ref="A37:E49" totalsRowShown="0">
-  <autoFilter ref="A37:E49" xr:uid="{612A3A46-4215-446A-99EF-29D247563B2A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA0FA6AC-2EBA-46EB-AD18-D05F443B706E}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{0FDFA34D-112A-4C03-AF06-B2BA2034D0A9}" name="ProviderId" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0490E3A0-FEF6-4A7C-9EFA-68092B4526B0}" name="ProcessId"/>
-    <tableColumn id="6" xr3:uid="{0330831D-B93C-4167-A1DC-ADE219EEBD0C}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{AC7B46A8-A4FA-4958-A521-FF9221369981}" name="ProcessAt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}" name="Table7231215" displayName="Table7231215" ref="N22:S27" totalsRowShown="0">
-  <autoFilter ref="N22:S27" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}" name="Table7231215" displayName="Table7231215" ref="N20:S25" totalsRowShown="0">
+  <autoFilter ref="N20:S25" xr:uid="{9BAFD21E-58D4-4D66-983D-798062C1C799}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47B5F713-EDFC-4E40-80B7-06955DEA0EB4}" name="Id" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{100CC2EC-802B-48DE-8DFA-0F488828ACAF}" name="UserId"/>
@@ -1136,7 +1116,7 @@
     <tableColumn id="1" xr3:uid="{38B043E7-FAE1-4291-A1A5-E497BB9FBAF2}" name="Id"/>
     <tableColumn id="2" xr3:uid="{54BCE3A6-D70B-426C-A2C9-CCCC872032C1}" name="name"/>
     <tableColumn id="3" xr3:uid="{31306A9E-2EFF-45DE-B859-A500DE4AC66D}" name="providerID"/>
-    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{55F93F36-7F90-4C04-A3FE-6A44D185B5F4}" name="source" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,7 +1128,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4FA6377-4941-4733-A949-DE88D5E586EC}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C61EAB24-82C9-4B14-B25F-7C4F3B137670}" name="title"/>
-    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{253810E4-F1E9-4321-B99C-60CB8172679E}" name="link" dataDxfId="17" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{83CCC064-BFF9-4258-BDE1-7E34D8E0C5FE}" name="uuid"/>
     <tableColumn id="5" xr3:uid="{AA59AE45-ACFC-4085-A5D9-74483D214052}" name="pubDate"/>
     <tableColumn id="6" xr3:uid="{86EBACFA-73A0-4D21-8C97-30BEBBAE6B8D}" name="image"/>
@@ -1174,17 +1154,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}" name="Table7" displayName="Table7" ref="V2:X9" totalsRowShown="0">
   <autoFilter ref="V2:X9" xr:uid="{5A4315A8-2324-4CEE-98CF-0AF9EE76B365}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{8CE2FD2B-15C8-4FA6-9E16-BD5966C6D6FE}" name="Id" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{4230035B-FEC3-463B-9E20-3737072D4D98}" name="newId"/>
-    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0E767961-92A6-4773-9F28-C3443F6D9A9F}" name="tagId" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3482E060-4C83-4B0B-841D-7C9045C6408A}" name="Table8" displayName="Table8" ref="A13:C18" totalsRowShown="0">
-  <autoFilter ref="A13:C18" xr:uid="{3482E060-4C83-4B0B-841D-7C9045C6408A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3482E060-4C83-4B0B-841D-7C9045C6408A}" name="Table8" displayName="Table8" ref="A12:C17" totalsRowShown="0">
+  <autoFilter ref="A12:C17" xr:uid="{3482E060-4C83-4B0B-841D-7C9045C6408A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C1159DF5-6161-4FEE-A5DD-0B4BCE0A6679}" name="Id"/>
     <tableColumn id="2" xr3:uid="{FA2A62C3-1DCE-4AB2-893E-411322FA4E4C}" name="Name"/>
@@ -1195,8 +1175,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7377DD51-AD5D-44B0-B14E-6AD22C59D91E}" name="Table9" displayName="Table9" ref="E13:G18" totalsRowShown="0">
-  <autoFilter ref="E13:G18" xr:uid="{7377DD51-AD5D-44B0-B14E-6AD22C59D91E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7377DD51-AD5D-44B0-B14E-6AD22C59D91E}" name="Table9" displayName="Table9" ref="E12:G17" totalsRowShown="0">
+  <autoFilter ref="E12:G17" xr:uid="{7377DD51-AD5D-44B0-B14E-6AD22C59D91E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{074637E1-5BFE-4168-B4D0-CD52E2C7A69A}" name="Id"/>
     <tableColumn id="2" xr3:uid="{C280EEBB-0CF5-4062-BAFF-59162C8742AA}" name="userId"/>
@@ -1207,8 +1187,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8CFCE44-4024-41E0-B7A2-AF7B25FBC558}" name="Table911" displayName="Table911" ref="I13:K18" totalsRowShown="0">
-  <autoFilter ref="I13:K18" xr:uid="{F8CFCE44-4024-41E0-B7A2-AF7B25FBC558}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8CFCE44-4024-41E0-B7A2-AF7B25FBC558}" name="Table911" displayName="Table911" ref="I12:K17" totalsRowShown="0">
+  <autoFilter ref="I12:K17" xr:uid="{F8CFCE44-4024-41E0-B7A2-AF7B25FBC558}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{12BE2974-A1C6-467F-BF86-5C6C9066C18D}" name="Id"/>
     <tableColumn id="2" xr3:uid="{31756908-548D-4054-B748-722778FA6E3E}" name="userId"/>
@@ -1219,8 +1199,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="H22:L27" totalsRowShown="0">
-  <autoFilter ref="H22:L27" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}" name="Table12" displayName="Table12" ref="H20:L25" totalsRowShown="0">
+  <autoFilter ref="H20:L25" xr:uid="{404B21AC-5906-448C-86A0-AB15454F77C4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CE5A38DB-09F9-4465-B560-5CFD95B1105C}" name="id"/>
     <tableColumn id="2" xr3:uid="{82A6E27B-4EDF-42AF-881E-EFB0C5D3C2A3}" name="mostLike"/>
@@ -1549,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBF2B2-C7DD-4D54-8FDA-E81C011DAD92}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1981,481 +1961,548 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" t="s">
-        <v>59</v>
-      </c>
-      <c r="T13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" t="s">
-        <v>63</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>2</v>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15" s="2">
-        <v>2</v>
+      <c r="S15" s="1">
+        <v>3</v>
       </c>
       <c r="T15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="S16" s="2">
+        <v>4</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="2">
-        <v>4</v>
-      </c>
       <c r="N17">
         <v>2</v>
       </c>
-      <c r="O17" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>4</v>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5</v>
       </c>
       <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" s="2">
-        <v>4</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1</v>
-      </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="S17" s="1">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18">
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>6</v>
-      </c>
-      <c r="M18" s="1">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>5</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>5</v>
-      </c>
-      <c r="T18" s="8">
-        <v>0</v>
-      </c>
-      <c r="U18" s="8">
-        <v>0</v>
-      </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22" t="s">
-        <v>85</v>
-      </c>
-      <c r="S22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>82</v>
       </c>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="R23" s="6">
+        <v>2</v>
+      </c>
+      <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
       </c>
+      <c r="G24" s="3"/>
       <c r="N24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R24" s="6">
         <v>1</v>
@@ -2464,13 +2511,13 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -2478,32 +2525,33 @@
       <c r="F25" t="s">
         <v>73</v>
       </c>
+      <c r="G25" s="3"/>
       <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R25" s="6">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" s="6">
-        <v>2</v>
-      </c>
-      <c r="S25" s="7"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -2512,85 +2560,55 @@
         <v>73</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="N26" s="2">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" s="6">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="N27" s="1">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R27" s="6">
-        <v>3</v>
-      </c>
-      <c r="S27" s="8"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -2603,13 +2621,13 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -2617,18 +2635,28 @@
       <c r="F30" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -2636,271 +2664,33 @@
       <c r="F31" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="I31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2908,12 +2698,12 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A4B4190E-2A8E-48E9-9D27-7F3098C51861}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{D0D3A713-AA10-4BF9-BF49-38A73DBD5927}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{0E1FD846-5F1C-4A35-B847-9D27F4DED921}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{D0D3A713-AA10-4BF9-BF49-38A73DBD5927}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{0E1FD846-5F1C-4A35-B847-9D27F4DED921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <tableParts count="14">
+  <tableParts count="13">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -2927,7 +2717,6 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
-    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>